--- a/output_data3.xlsx
+++ b/output_data3.xlsx
@@ -136,11 +136,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +520,7 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
     <col width="3" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
     <col width="35" customWidth="1" min="9" max="9"/>
@@ -529,7 +529,7 @@
     <col width="35" customWidth="1" min="12" max="12"/>
     <col width="36" customWidth="1" min="13" max="13"/>
     <col width="35" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="36" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
@@ -624,7 +624,7 @@
       </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="P2" s="4" t="inlineStr">
@@ -651,48 +651,46 @@
       <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>-144625471759</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="F3" s="7" t="n">
+        <v>-144625.471759</v>
+      </c>
+      <c r="G3" s="8" t="inlineStr"/>
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>5236868010.06385173815660629349</t>
         </is>
       </c>
-      <c r="I3" s="8" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>911317440.77548312331840807284</t>
         </is>
       </c>
-      <c r="J3" s="8" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>16980559320.75030979033101751752</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>4738847245.52283468749818575294</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>14636775533.35644518800473435891</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>58046876435.25932861741364390466</t>
         </is>
       </c>
-      <c r="N3" s="8" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>-20322118105.08068975382991104224</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="9" t="inlineStr">
         <is>
           <t>80229125880.64756339089268485812</t>
         </is>
@@ -719,48 +717,46 @@
       <c r="E4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>9149992377</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="F4" s="7" t="n">
+        <v>9149.992377</v>
+      </c>
+      <c r="G4" s="8" t="inlineStr"/>
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>76707897394</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>42842703343</t>
         </is>
       </c>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="J4" s="9" t="inlineStr">
         <is>
           <t>101531770371</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="9" t="inlineStr">
         <is>
           <t>20705854333</t>
         </is>
       </c>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" s="9" t="inlineStr">
         <is>
           <t>58153253689</t>
         </is>
       </c>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>268557868939</t>
         </is>
       </c>
-      <c r="N4" s="8" t="inlineStr">
+      <c r="N4" s="9" t="inlineStr">
         <is>
           <t>112953126881</t>
         </is>
       </c>
-      <c r="O4" s="8" t="inlineStr">
+      <c r="O4" s="9" t="inlineStr">
         <is>
           <t>681452474950</t>
         </is>
@@ -787,48 +783,46 @@
       <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>6599688470</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="F5" s="7" t="n">
+        <v>6599.68847</v>
+      </c>
+      <c r="G5" s="8" t="inlineStr"/>
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>71210401715.68399637789441956500</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>40313734235.10858286946308390170</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>96090675423.84768817133094591490</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="9" t="inlineStr">
         <is>
           <t>19781215963.57697950565216892850</t>
         </is>
       </c>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>54371561892.78104741527455537250</t>
         </is>
       </c>
-      <c r="M5" s="8" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t>252252873483.33603429025206095750</t>
         </is>
       </c>
-      <c r="N5" s="8" t="inlineStr">
+      <c r="N5" s="9" t="inlineStr">
         <is>
           <t>104784917684.63824988910677079370</t>
         </is>
       </c>
-      <c r="O5" s="8" t="inlineStr">
+      <c r="O5" s="9" t="inlineStr">
         <is>
           <t>638805380398.97257851897400543380</t>
         </is>
@@ -855,48 +849,46 @@
       <c r="E6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>13591737</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="F6" s="7" t="n">
+        <v>13.591737</v>
+      </c>
+      <c r="G6" s="8" t="inlineStr"/>
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>64191654.44240644996939216937</t>
         </is>
       </c>
-      <c r="I6" s="8" t="inlineStr">
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>55514989.30377810654776799691</t>
         </is>
       </c>
-      <c r="J6" s="8" t="inlineStr">
+      <c r="J6" s="9" t="inlineStr">
         <is>
           <t>87499119.59609738195169104726</t>
         </is>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>762808.01117628774198662203</t>
         </is>
       </c>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" s="9" t="inlineStr">
         <is>
           <t>53187353.55224852122302653497</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr">
+      <c r="M6" s="9" t="inlineStr">
         <is>
           <t>63407211.71789865491015670263</t>
         </is>
       </c>
-      <c r="N6" s="8" t="inlineStr">
+      <c r="N6" s="9" t="inlineStr">
         <is>
           <t>233448619.37639459765584300946</t>
         </is>
       </c>
-      <c r="O6" s="8" t="inlineStr">
+      <c r="O6" s="9" t="inlineStr">
         <is>
           <t>558011755.99999999999986408263</t>
         </is>
@@ -923,48 +915,46 @@
       <c r="E7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>361541483</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="inlineStr"/>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="F7" s="7" t="n">
+        <v>361.541483</v>
+      </c>
+      <c r="G7" s="8" t="inlineStr"/>
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>2248781647.03151549616282223715</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>574169881.57698038100771978852</t>
         </is>
       </c>
-      <c r="J7" s="8" t="inlineStr">
+      <c r="J7" s="9" t="inlineStr">
         <is>
           <t>944207738.97814046062040979452</t>
         </is>
       </c>
-      <c r="K7" s="8" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>60962181.16421381859421676145</t>
         </is>
       </c>
-      <c r="L7" s="8" t="inlineStr">
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t>1325728118.08849019050385989426</t>
         </is>
       </c>
-      <c r="M7" s="8" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>3895335021.47635484788237939356</t>
         </is>
       </c>
-      <c r="N7" s="8" t="inlineStr">
+      <c r="N7" s="9" t="inlineStr">
         <is>
           <t>2485006742.71940290020083943243</t>
         </is>
       </c>
-      <c r="O7" s="8" t="inlineStr">
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t>11534191331.03509809497224730189</t>
         </is>
@@ -991,48 +981,46 @@
       <c r="E8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>1874893661</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="F8" s="7" t="n">
+        <v>1874.893661</v>
+      </c>
+      <c r="G8" s="8" t="inlineStr"/>
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>3625425755.59281433841091710950</t>
         </is>
       </c>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>2101737612.06347085647355207371</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
+      <c r="J8" s="9" t="inlineStr">
         <is>
           <t>5004389957.78437619676509858487</t>
         </is>
       </c>
-      <c r="K8" s="8" t="inlineStr">
+      <c r="K8" s="9" t="inlineStr">
         <is>
           <t>1028260225.07912292300581351455</t>
         </is>
       </c>
-      <c r="L8" s="8" t="inlineStr">
+      <c r="L8" s="9" t="inlineStr">
         <is>
           <t>2778679323.72987595819635687175</t>
         </is>
       </c>
-      <c r="M8" s="8" t="inlineStr">
+      <c r="M8" s="9" t="inlineStr">
         <is>
           <t>12950572262.15676273060086170725</t>
         </is>
       </c>
-      <c r="N8" s="8" t="inlineStr">
+      <c r="N8" s="9" t="inlineStr">
         <is>
           <t>5490859662.97415401627589817331</t>
         </is>
       </c>
-      <c r="O8" s="8" t="inlineStr">
+      <c r="O8" s="9" t="inlineStr">
         <is>
           <t>32979924799.38057701972849803494</t>
         </is>
@@ -1059,48 +1047,46 @@
       <c r="E9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>300277026</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="n">
+        <v>300.277026</v>
+      </c>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>634722991.46658013857809628218</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>399710741.10211582117245040540</t>
         </is>
       </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="J9" s="9" t="inlineStr">
         <is>
           <t>741649960.30312608145053717580</t>
         </is>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="K9" s="9" t="inlineStr">
         <is>
           <t>148332083.82680249002474444412</t>
         </is>
       </c>
-      <c r="L9" s="8" t="inlineStr">
+      <c r="L9" s="9" t="inlineStr">
         <is>
           <t>278012296.72951945651432847726</t>
         </is>
       </c>
-      <c r="M9" s="8" t="inlineStr">
+      <c r="M9" s="9" t="inlineStr">
         <is>
           <t>2886946170.76487049837722877798</t>
         </is>
       </c>
-      <c r="N9" s="8" t="inlineStr">
+      <c r="N9" s="9" t="inlineStr">
         <is>
           <t>1481077681.80698551388261443726</t>
         </is>
       </c>
-      <c r="O9" s="8" t="inlineStr">
+      <c r="O9" s="9" t="inlineStr">
         <is>
           <t>6570451926.00000000000000000000</t>
         </is>
@@ -1127,48 +1113,46 @@
       <c r="E10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>-132141107393</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="7" t="n">
+        <v>-132141.107393</v>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>-15195581756.01390726358487220167</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="I10" s="9" t="inlineStr">
         <is>
           <t>-8486998384.96849250603876598337</t>
         </is>
       </c>
-      <c r="J10" s="8" t="inlineStr">
+      <c r="J10" s="9" t="inlineStr">
         <is>
           <t>-20113109209.35292949151941937596</t>
         </is>
       </c>
-      <c r="K10" s="8" t="inlineStr">
+      <c r="K10" s="9" t="inlineStr">
         <is>
           <t>-4101761526.96667292152579633501</t>
         </is>
       </c>
-      <c r="L10" s="8" t="inlineStr">
+      <c r="L10" s="9" t="inlineStr">
         <is>
           <t>-11519967967.19051587919699595366</t>
         </is>
       </c>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="M10" s="9" t="inlineStr">
         <is>
           <t>-53200429060.41959841696356842836</t>
         </is>
       </c>
-      <c r="N10" s="8" t="inlineStr">
+      <c r="N10" s="9" t="inlineStr">
         <is>
           <t>-22375642305.79342545998438660720</t>
         </is>
       </c>
-      <c r="O10" s="8" t="inlineStr">
+      <c r="O10" s="9" t="inlineStr">
         <is>
           <t>-134993490210.70554193881380488523</t>
         </is>
@@ -1195,48 +1179,46 @@
       <c r="E11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" s="8" t="inlineStr">
+      <c r="F11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1263,48 +1245,46 @@
       <c r="E12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>-9320711657</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="F12" s="7" t="n">
+        <v>-9320.711657</v>
+      </c>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>-1071836302.89205680900822303539</t>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="I12" s="9" t="inlineStr">
         <is>
           <t>-598639335.93692947233701762743</t>
         </is>
       </c>
-      <c r="J12" s="8" t="inlineStr">
+      <c r="J12" s="9" t="inlineStr">
         <is>
           <t>-1418699261.45375105407116023759</t>
         </is>
       </c>
-      <c r="K12" s="8" t="inlineStr">
+      <c r="K12" s="9" t="inlineStr">
         <is>
           <t>-289322053.01510620245700680077</t>
         </is>
       </c>
-      <c r="L12" s="8" t="inlineStr">
+      <c r="L12" s="9" t="inlineStr">
         <is>
           <t>-812573027.71587977541866886468</t>
         </is>
       </c>
-      <c r="M12" s="8" t="inlineStr">
+      <c r="M12" s="9" t="inlineStr">
         <is>
           <t>-3752548083.51274907554498307711</t>
         </is>
       </c>
-      <c r="N12" s="8" t="inlineStr">
+      <c r="N12" s="9" t="inlineStr">
         <is>
           <t>-1578289407.33940878998727780313</t>
         </is>
       </c>
-      <c r="O12" s="8" t="inlineStr">
+      <c r="O12" s="9" t="inlineStr">
         <is>
           <t>-9521907471.86588117882433744610</t>
         </is>
@@ -1331,48 +1311,46 @@
       <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" s="8" t="inlineStr">
+      <c r="F13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1399,48 +1377,46 @@
       <c r="E14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>-122820395736</t>
-        </is>
-      </c>
-      <c r="G14" s="9" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="F14" s="7" t="n">
+        <v>-122820.395736</v>
+      </c>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="9" t="inlineStr">
         <is>
           <t>-14123745453.12185045457664916628</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr">
+      <c r="I14" s="9" t="inlineStr">
         <is>
           <t>-7888359049.03156303370174835594</t>
         </is>
       </c>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="J14" s="9" t="inlineStr">
         <is>
           <t>-18694409947.89917843744825913837</t>
         </is>
       </c>
-      <c r="K14" s="8" t="inlineStr">
+      <c r="K14" s="9" t="inlineStr">
         <is>
           <t>-3812439473.95156671906878953424</t>
         </is>
       </c>
-      <c r="L14" s="8" t="inlineStr">
+      <c r="L14" s="9" t="inlineStr">
         <is>
           <t>-10707394939.47463610377832708898</t>
         </is>
       </c>
-      <c r="M14" s="8" t="inlineStr">
+      <c r="M14" s="9" t="inlineStr">
         <is>
           <t>-49447880976.90684934141858535125</t>
         </is>
       </c>
-      <c r="N14" s="8" t="inlineStr">
+      <c r="N14" s="9" t="inlineStr">
         <is>
           <t>-20797352898.45401666999710880407</t>
         </is>
       </c>
-      <c r="O14" s="8" t="inlineStr">
+      <c r="O14" s="9" t="inlineStr">
         <is>
           <t>-125471582738.83966075998946743913</t>
         </is>
@@ -1467,48 +1443,46 @@
       <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>-362680543</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="F15" s="7" t="n">
+        <v>-362.680543</v>
+      </c>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="9" t="inlineStr">
         <is>
           <t>-5181917673.50882770224011217164</t>
         </is>
       </c>
-      <c r="I15" s="8" t="inlineStr">
+      <c r="I15" s="9" t="inlineStr">
         <is>
           <t>-3281789713.72144412255578074619</t>
         </is>
       </c>
-      <c r="J15" s="8" t="inlineStr">
+      <c r="J15" s="9" t="inlineStr">
         <is>
           <t>-6254279715.41625661858265648652</t>
         </is>
       </c>
-      <c r="K15" s="8" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t>-1650549030.78669398863892866005</t>
         </is>
       </c>
-      <c r="L15" s="8" t="inlineStr">
+      <c r="L15" s="9" t="inlineStr">
         <is>
           <t>-3229600577.58628297663908260303</t>
         </is>
       </c>
-      <c r="M15" s="8" t="inlineStr">
+      <c r="M15" s="9" t="inlineStr">
         <is>
           <t>-16705224033.14084174413136378418</t>
         </is>
       </c>
-      <c r="N15" s="8" t="inlineStr">
+      <c r="N15" s="9" t="inlineStr">
         <is>
           <t>-7986671240.48654751734062905464</t>
         </is>
       </c>
-      <c r="O15" s="8" t="inlineStr">
+      <c r="O15" s="9" t="inlineStr">
         <is>
           <t>-44290031984.64689467012855350625</t>
         </is>
@@ -1535,48 +1509,46 @@
       <c r="E16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" s="8" t="inlineStr">
+      <c r="F16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1603,48 +1575,46 @@
       <c r="E17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" s="8" t="inlineStr">
+      <c r="F17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1671,48 +1641,46 @@
       <c r="E18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>1745271</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="F18" s="7" t="n">
+        <v>1.745271</v>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>5445449.93983854334506249708</t>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>3391861.57676268149079353843</t>
         </is>
       </c>
-      <c r="J18" s="8" t="inlineStr">
+      <c r="J18" s="9" t="inlineStr">
         <is>
           <t>6684151.27061088470072785644</t>
         </is>
       </c>
-      <c r="K18" s="8" t="inlineStr">
+      <c r="K18" s="9" t="inlineStr">
         <is>
           <t>1755623.83468639563674043485</t>
         </is>
       </c>
-      <c r="L18" s="8" t="inlineStr">
+      <c r="L18" s="9" t="inlineStr">
         <is>
           <t>3335726.86869875640646613991</t>
         </is>
       </c>
-      <c r="M18" s="8" t="inlineStr">
+      <c r="M18" s="9" t="inlineStr">
         <is>
           <t>17351807.37828890923333014146</t>
         </is>
       </c>
-      <c r="N18" s="8" t="inlineStr">
+      <c r="N18" s="9" t="inlineStr">
         <is>
           <t>8582863.81284760366132074808</t>
         </is>
       </c>
-      <c r="O18" s="8" t="inlineStr">
+      <c r="O18" s="9" t="inlineStr">
         <is>
           <t>46547484.68173377447444135625</t>
         </is>
@@ -1739,48 +1707,46 @@
       <c r="E19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="inlineStr">
-        <is>
-          <t>-186651305</t>
-        </is>
-      </c>
-      <c r="G19" s="9" t="inlineStr"/>
-      <c r="H19" s="8" t="inlineStr">
+      <c r="F19" s="7" t="n">
+        <v>-186.651305</v>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
         <is>
           <t>-74515640.16805218482114261140</t>
         </is>
       </c>
-      <c r="I19" s="8" t="inlineStr">
+      <c r="I19" s="9" t="inlineStr">
         <is>
           <t>-45398398.28235109364445947565</t>
         </is>
       </c>
-      <c r="J19" s="8" t="inlineStr">
+      <c r="J19" s="9" t="inlineStr">
         <is>
           <t>-91043735.24730874265107760020</t>
         </is>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>-23273347.44480829128766140675</t>
         </is>
       </c>
-      <c r="L19" s="8" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>-44433873.53571539041444878905</t>
         </is>
       </c>
-      <c r="M19" s="8" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>-237313124.10680666522713114430</t>
         </is>
       </c>
-      <c r="N19" s="8" t="inlineStr">
+      <c r="N19" s="9" t="inlineStr">
         <is>
           <t>-116750437.52715480261133981640</t>
         </is>
       </c>
-      <c r="O19" s="8" t="inlineStr">
+      <c r="O19" s="9" t="inlineStr">
         <is>
           <t>-632728556.31219717065726084375</t>
         </is>
@@ -1807,48 +1773,46 @@
       <c r="E20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>-177774509</t>
-        </is>
-      </c>
-      <c r="G20" s="9" t="inlineStr"/>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="F20" s="7" t="n">
+        <v>-177.774509</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>-5112847483.28061406076403205732</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>-3239783177.01585571040211480897</t>
         </is>
       </c>
-      <c r="J20" s="8" t="inlineStr">
+      <c r="J20" s="9" t="inlineStr">
         <is>
           <t>-6169920131.43955876063230674276</t>
         </is>
       </c>
-      <c r="K20" s="8" t="inlineStr">
+      <c r="K20" s="9" t="inlineStr">
         <is>
           <t>-1629031307.17657209298800768815</t>
         </is>
       </c>
-      <c r="L20" s="8" t="inlineStr">
+      <c r="L20" s="9" t="inlineStr">
         <is>
           <t>-3188502430.91926634263109995389</t>
         </is>
       </c>
-      <c r="M20" s="8" t="inlineStr">
+      <c r="M20" s="9" t="inlineStr">
         <is>
           <t>-16485262716.41232398813756278134</t>
         </is>
       </c>
-      <c r="N20" s="8" t="inlineStr">
+      <c r="N20" s="9" t="inlineStr">
         <is>
           <t>-7878503666.77224031839060998632</t>
         </is>
       </c>
-      <c r="O20" s="8" t="inlineStr">
+      <c r="O20" s="9" t="inlineStr">
         <is>
           <t>-43703850913.01643127394573401875</t>
         </is>
@@ -1875,48 +1839,46 @@
       <c r="E21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" s="9" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N21" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" s="8" t="inlineStr">
+      <c r="F21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1943,48 +1905,46 @@
       <c r="E22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t>-123353795559</t>
-        </is>
-      </c>
-      <c r="G22" s="9" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="F22" s="7" t="n">
+        <v>-123353.795559</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>56330397964.47726503417501562669</t>
         </is>
       </c>
-      <c r="I22" s="8" t="inlineStr">
+      <c r="I22" s="9" t="inlineStr">
         <is>
           <t>31073915244.31006337140545327044</t>
         </is>
       </c>
-      <c r="J22" s="8" t="inlineStr">
+      <c r="J22" s="9" t="inlineStr">
         <is>
           <t>75164381446.23081388989792413752</t>
         </is>
       </c>
-      <c r="K22" s="8" t="inlineStr">
+      <c r="K22" s="9" t="inlineStr">
         <is>
           <t>14953543775.24663308983527500494</t>
         </is>
       </c>
-      <c r="L22" s="8" t="inlineStr">
+      <c r="L22" s="9" t="inlineStr">
         <is>
           <t>43403685144.22320114416392144331</t>
         </is>
       </c>
-      <c r="M22" s="8" t="inlineStr">
+      <c r="M22" s="9" t="inlineStr">
         <is>
           <t>198652215845.43955983890506778746</t>
         </is>
       </c>
-      <c r="N22" s="8" t="inlineStr">
+      <c r="N22" s="9" t="inlineStr">
         <is>
           <t>82590813334.72002702267498433816</t>
         </is>
       </c>
-      <c r="O22" s="8" t="inlineStr">
+      <c r="O22" s="9" t="inlineStr">
         <is>
           <t>502168952754.64756339105764160852</t>
         </is>
@@ -2011,48 +1971,46 @@
       <c r="E23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>-16495675040</t>
-        </is>
-      </c>
-      <c r="G23" s="9" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr">
+      <c r="F23" s="7" t="n">
+        <v>-16495.67504</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="9" t="inlineStr">
         <is>
           <t>-10423556244.54054054057174857440</t>
         </is>
       </c>
-      <c r="I23" s="8" t="inlineStr">
+      <c r="I23" s="9" t="inlineStr">
         <is>
           <t>-6944913993.97297297289718203360</t>
         </is>
       </c>
-      <c r="J23" s="8" t="inlineStr">
+      <c r="J23" s="9" t="inlineStr">
         <is>
           <t>-15594063359.48648648653106939200</t>
         </is>
       </c>
-      <c r="K23" s="8" t="inlineStr">
+      <c r="K23" s="9" t="inlineStr">
         <is>
           <t>-3933761727.83783783787796245280</t>
         </is>
       </c>
-      <c r="L23" s="8" t="inlineStr">
+      <c r="L23" s="9" t="inlineStr">
         <is>
           <t>-6492521568.83783783787796245280</t>
         </is>
       </c>
-      <c r="M23" s="8" t="inlineStr">
+      <c r="M23" s="9" t="inlineStr">
         <is>
           <t>-30513800136.24324324326553469600</t>
         </is>
       </c>
-      <c r="N23" s="8" t="inlineStr">
+      <c r="N23" s="9" t="inlineStr">
         <is>
           <t>-17148940050.08108108114349714880</t>
         </is>
       </c>
-      <c r="O23" s="8" t="inlineStr">
+      <c r="O23" s="9" t="inlineStr">
         <is>
           <t>-91051557081.00000000016495675040</t>
         </is>
@@ -2079,48 +2037,46 @@
       <c r="E24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" s="9" t="inlineStr"/>
-      <c r="H24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N24" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" s="8" t="inlineStr">
+      <c r="F24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr"/>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2147,48 +2103,46 @@
       <c r="E25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>-15074158721</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="inlineStr"/>
-      <c r="H25" s="8" t="inlineStr">
+      <c r="F25" s="7" t="n">
+        <v>-15074.158721</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr"/>
+      <c r="H25" s="9" t="inlineStr">
         <is>
           <t>-9172655788.64864864867716732731</t>
         </is>
       </c>
-      <c r="I25" s="8" t="inlineStr">
+      <c r="I25" s="9" t="inlineStr">
         <is>
           <t>-6115861629.06756756749830791939</t>
         </is>
       </c>
-      <c r="J25" s="8" t="inlineStr">
+      <c r="J25" s="9" t="inlineStr">
         <is>
           <t>-13799752479.78378378382452475330</t>
         </is>
       </c>
-      <c r="K25" s="8" t="inlineStr">
+      <c r="K25" s="9" t="inlineStr">
         <is>
           <t>-3477629403.90540540544207227797</t>
         </is>
       </c>
-      <c r="L25" s="8" t="inlineStr">
+      <c r="L25" s="9" t="inlineStr">
         <is>
           <t>-5715311355.90540540544207227797</t>
         </is>
       </c>
-      <c r="M25" s="8" t="inlineStr">
+      <c r="M25" s="9" t="inlineStr">
         <is>
           <t>-26733389392.39189189191226237665</t>
         </is>
       </c>
-      <c r="N25" s="8" t="inlineStr">
+      <c r="N25" s="9" t="inlineStr">
         <is>
           <t>-15110980529.29729729735433465462</t>
         </is>
       </c>
-      <c r="O25" s="8" t="inlineStr">
+      <c r="O25" s="9" t="inlineStr">
         <is>
           <t>-80125580579.00000000015074158721</t>
         </is>
@@ -2215,48 +2169,46 @@
       <c r="E26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>-627109313</t>
-        </is>
-      </c>
-      <c r="G26" s="9" t="inlineStr"/>
-      <c r="H26" s="8" t="inlineStr">
+      <c r="F26" s="7" t="n">
+        <v>-627.109313</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr"/>
+      <c r="H26" s="9" t="inlineStr">
         <is>
           <t>-356162358.40540540540659182843</t>
         </is>
       </c>
-      <c r="I26" s="8" t="inlineStr">
+      <c r="I26" s="9" t="inlineStr">
         <is>
           <t>-240733533.22972972972684841667</t>
         </is>
       </c>
-      <c r="J26" s="8" t="inlineStr">
+      <c r="J26" s="9" t="inlineStr">
         <is>
           <t>-544890363.86486486486655975490</t>
         </is>
       </c>
-      <c r="K26" s="8" t="inlineStr">
+      <c r="K26" s="9" t="inlineStr">
         <is>
           <t>-136693618.87837837837990377941</t>
         </is>
       </c>
-      <c r="L26" s="8" t="inlineStr">
+      <c r="L26" s="9" t="inlineStr">
         <is>
           <t>-222914653.87837837837990377941</t>
         </is>
       </c>
-      <c r="M26" s="8" t="inlineStr">
+      <c r="M26" s="9" t="inlineStr">
         <is>
           <t>-1026441570.93243243243327987745</t>
         </is>
       </c>
-      <c r="N26" s="8" t="inlineStr">
+      <c r="N26" s="9" t="inlineStr">
         <is>
           <t>-589810979.81081081081318365686</t>
         </is>
       </c>
-      <c r="O26" s="8" t="inlineStr">
+      <c r="O26" s="9" t="inlineStr">
         <is>
           <t>-3117647079.00000000000627109313</t>
         </is>
@@ -2283,48 +2235,46 @@
       <c r="E27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t>-794407006</t>
-        </is>
-      </c>
-      <c r="G27" s="9" t="inlineStr"/>
-      <c r="H27" s="8" t="inlineStr">
+      <c r="F27" s="7" t="n">
+        <v>-794.407006</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr"/>
+      <c r="H27" s="9" t="inlineStr">
         <is>
           <t>-894738097.48648648648798941866</t>
         </is>
       </c>
-      <c r="I27" s="8" t="inlineStr">
+      <c r="I27" s="9" t="inlineStr">
         <is>
           <t>-588318831.67567567567202569754</t>
         </is>
       </c>
-      <c r="J27" s="8" t="inlineStr">
+      <c r="J27" s="9" t="inlineStr">
         <is>
           <t>-1249420515.83783783783998488380</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>-319438705.05405405405598639542</t>
         </is>
       </c>
-      <c r="L27" s="8" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>-554295559.05405405405598639542</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
+      <c r="M27" s="9" t="inlineStr">
         <is>
           <t>-2753969172.91891891891999244190</t>
         </is>
       </c>
-      <c r="N27" s="8" t="inlineStr">
+      <c r="N27" s="9" t="inlineStr">
         <is>
           <t>-1448148540.97297297297597883732</t>
         </is>
       </c>
-      <c r="O27" s="8" t="inlineStr">
+      <c r="O27" s="9" t="inlineStr">
         <is>
           <t>-7808329423.00000000000794407006</t>
         </is>
@@ -2351,48 +2301,46 @@
       <c r="E28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>-4776001160</t>
-        </is>
-      </c>
-      <c r="G28" s="9" t="inlineStr"/>
-      <c r="H28" s="8" t="inlineStr">
+      <c r="F28" s="7" t="n">
+        <v>-4776.00116</v>
+      </c>
+      <c r="G28" s="8" t="inlineStr"/>
+      <c r="H28" s="9" t="inlineStr">
         <is>
           <t>-40669973709.87287275544666075880</t>
         </is>
       </c>
-      <c r="I28" s="8" t="inlineStr">
+      <c r="I28" s="9" t="inlineStr">
         <is>
           <t>-23217683809.56160727518986316400</t>
         </is>
       </c>
-      <c r="J28" s="8" t="inlineStr">
+      <c r="J28" s="9" t="inlineStr">
         <is>
           <t>-42589758765.99401761303583722800</t>
         </is>
       </c>
-      <c r="K28" s="8" t="inlineStr">
+      <c r="K28" s="9" t="inlineStr">
         <is>
           <t>-6280934801.88596056445912679920</t>
         </is>
       </c>
-      <c r="L28" s="8" t="inlineStr">
+      <c r="L28" s="9" t="inlineStr">
         <is>
           <t>-22274388042.02891811828122463160</t>
         </is>
       </c>
-      <c r="M28" s="8" t="inlineStr">
+      <c r="M28" s="9" t="inlineStr">
         <is>
           <t>-110091539273.93698797822588918680</t>
         </is>
       </c>
-      <c r="N28" s="8" t="inlineStr">
+      <c r="N28" s="9" t="inlineStr">
         <is>
           <t>-85763991389.71963569536139823160</t>
         </is>
       </c>
-      <c r="O28" s="8" t="inlineStr">
+      <c r="O28" s="9" t="inlineStr">
         <is>
           <t>-330888269793.00000000000000000000</t>
         </is>
@@ -2419,48 +2367,46 @@
       <c r="E29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G29" s="9" t="inlineStr"/>
-      <c r="H29" s="8" t="inlineStr">
+      <c r="F29" s="7" t="n">
+        <v>7.4e-05</v>
+      </c>
+      <c r="G29" s="8" t="inlineStr"/>
+      <c r="H29" s="9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I29" s="8" t="inlineStr">
+      <c r="I29" s="9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J29" s="8" t="inlineStr">
+      <c r="J29" s="9" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="K29" s="8" t="inlineStr">
+      <c r="K29" s="9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L29" s="8" t="inlineStr">
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M29" s="8" t="inlineStr">
+      <c r="M29" s="9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N29" s="8" t="inlineStr">
+      <c r="N29" s="9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O29" s="8" t="inlineStr">
+      <c r="O29" s="9" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -2487,48 +2433,46 @@
       <c r="E30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" s="9" t="inlineStr"/>
-      <c r="H30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" s="8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="8" t="inlineStr">
+      <c r="F30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="inlineStr"/>
+      <c r="H30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2543,60 +2487,68 @@
           <t>CIR (%)</t>
         </is>
       </c>
-      <c r="B31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>-13.37265299802642451400</t>
         </is>
       </c>
-      <c r="G31" s="9" t="inlineStr"/>
-      <c r="H31" s="8" t="inlineStr">
+      <c r="G31" s="8" t="inlineStr"/>
+      <c r="H31" s="9" t="inlineStr">
         <is>
           <t>18.50431848735345444200</t>
         </is>
       </c>
-      <c r="I31" s="8" t="inlineStr">
+      <c r="I31" s="9" t="inlineStr">
         <is>
           <t>22.34965867471320463300</t>
         </is>
       </c>
-      <c r="J31" s="8" t="inlineStr">
+      <c r="J31" s="9" t="inlineStr">
         <is>
           <t>20.74661303591219128400</t>
         </is>
       </c>
-      <c r="K31" s="8" t="inlineStr">
+      <c r="K31" s="9" t="inlineStr">
         <is>
           <t>26.30655172421132111600</t>
         </is>
       </c>
-      <c r="L31" s="8" t="inlineStr">
+      <c r="L31" s="9" t="inlineStr">
         <is>
           <t>14.95845697724576229800</t>
         </is>
       </c>
-      <c r="M31" s="8" t="inlineStr">
+      <c r="M31" s="9" t="inlineStr">
         <is>
           <t>15.36041267215683346800</t>
         </is>
       </c>
-      <c r="N31" s="8" t="inlineStr">
+      <c r="N31" s="9" t="inlineStr">
         <is>
           <t>20.76373794816705801200</t>
         </is>
       </c>
-      <c r="O31" s="8" t="inlineStr">
+      <c r="O31" s="9" t="inlineStr">
         <is>
           <t>138.98974951975982525300</t>
         </is>
@@ -2611,60 +2563,68 @@
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>-1580.3061377158918300</t>
         </is>
       </c>
-      <c r="G32" s="9" t="inlineStr"/>
-      <c r="H32" s="8" t="inlineStr">
+      <c r="G32" s="8" t="inlineStr"/>
+      <c r="H32" s="9" t="inlineStr">
         <is>
           <t>6.82654127159777545900</t>
         </is>
       </c>
-      <c r="I32" s="8" t="inlineStr">
+      <c r="I32" s="9" t="inlineStr">
         <is>
           <t>2.12695564537264392600</t>
         </is>
       </c>
-      <c r="J32" s="8" t="inlineStr">
+      <c r="J32" s="9" t="inlineStr">
         <is>
           <t>16.72327927448012647900</t>
         </is>
       </c>
-      <c r="K32" s="8" t="inlineStr">
+      <c r="K32" s="9" t="inlineStr">
         <is>
           <t>22.88456879089875931200</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="9" t="inlineStr">
         <is>
           <t>25.16787122554788524100</t>
         </is>
       </c>
-      <c r="M32" s="8" t="inlineStr">
+      <c r="M32" s="9" t="inlineStr">
         <is>
           <t>21.61289350296180857900</t>
         </is>
       </c>
-      <c r="N32" s="8" t="inlineStr">
+      <c r="N32" s="9" t="inlineStr">
         <is>
           <t>-17.99027135034477693500</t>
         </is>
       </c>
-      <c r="O32" s="8" t="inlineStr">
+      <c r="O32" s="9" t="inlineStr">
         <is>
           <t>77.35183836051422206100</t>
         </is>
@@ -2679,60 +2639,68 @@
           <t>Hiệu suất trên/vốn (%)</t>
         </is>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>-109.4477521887797800</t>
         </is>
       </c>
-      <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="8" t="inlineStr">
+      <c r="G33" s="8" t="inlineStr"/>
+      <c r="H33" s="9" t="inlineStr">
         <is>
           <t>34.46309653785563736100</t>
         </is>
       </c>
-      <c r="I33" s="8" t="inlineStr">
+      <c r="I33" s="9" t="inlineStr">
         <is>
           <t>10.73780622357060030200</t>
         </is>
       </c>
-      <c r="J33" s="8" t="inlineStr">
+      <c r="J33" s="9" t="inlineStr">
         <is>
           <t>84.42533247347987337100</t>
         </is>
       </c>
-      <c r="K33" s="8" t="inlineStr">
+      <c r="K33" s="9" t="inlineStr">
         <is>
           <t>115.53200288138882162700</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>127.05569646584750708100</t>
         </is>
       </c>
-      <c r="M33" s="8" t="inlineStr">
+      <c r="M33" s="9" t="inlineStr">
         <is>
           <t>109.10979001567004592500</t>
         </is>
       </c>
-      <c r="N33" s="8" t="inlineStr">
+      <c r="N33" s="9" t="inlineStr">
         <is>
           <t>-90.82250166208169952400</t>
         </is>
       </c>
-      <c r="O33" s="8" t="inlineStr">
+      <c r="O33" s="9" t="inlineStr">
         <is>
           <t>390.50122293573078614300</t>
         </is>
@@ -2747,60 +2715,68 @@
           <t>Hiệu suất BQ/ Nhân sự</t>
         </is>
       </c>
-      <c r="B34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>-1954398267.01351351</t>
         </is>
       </c>
-      <c r="G34" s="9" t="inlineStr"/>
-      <c r="H34" s="8" t="inlineStr">
+      <c r="G34" s="8" t="inlineStr"/>
+      <c r="H34" s="9" t="inlineStr">
         <is>
           <t>654608501.25798146726957578669</t>
         </is>
       </c>
-      <c r="I34" s="8" t="inlineStr">
+      <c r="I34" s="9" t="inlineStr">
         <is>
           <t>130188205.82506901761691543898</t>
         </is>
       </c>
-      <c r="J34" s="8" t="inlineStr">
+      <c r="J34" s="9" t="inlineStr">
         <is>
           <t>771843605.48865044501504625080</t>
         </is>
       </c>
-      <c r="K34" s="8" t="inlineStr">
+      <c r="K34" s="9" t="inlineStr">
         <is>
           <t>947769449.10456693749963715059</t>
         </is>
       </c>
-      <c r="L34" s="8" t="inlineStr">
+      <c r="L34" s="9" t="inlineStr">
         <is>
           <t>2927355106.67128903760094687178</t>
         </is>
       </c>
-      <c r="M34" s="8" t="inlineStr">
+      <c r="M34" s="9" t="inlineStr">
         <is>
           <t>5276988766.84175714703760399133</t>
         </is>
       </c>
-      <c r="N34" s="8" t="inlineStr">
+      <c r="N34" s="9" t="inlineStr">
         <is>
           <t>-1270132381.56754310961436944014</t>
         </is>
       </c>
-      <c r="O34" s="8" t="inlineStr">
+      <c r="O34" s="9" t="inlineStr">
         <is>
           <t>9438621253.62177094242535605003</t>
         </is>

--- a/output_data3.xlsx
+++ b/output_data3.xlsx
@@ -522,12 +522,12 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
     <col width="3" customWidth="1" min="7" max="7"/>
-    <col width="35" customWidth="1" min="8" max="8"/>
-    <col width="35" customWidth="1" min="9" max="9"/>
-    <col width="35" customWidth="1" min="10" max="10"/>
+    <col width="34" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="34" customWidth="1" min="10" max="10"/>
     <col width="34" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
-    <col width="36" customWidth="1" min="13" max="13"/>
+    <col width="34" customWidth="1" min="12" max="12"/>
+    <col width="35" customWidth="1" min="13" max="13"/>
     <col width="35" customWidth="1" min="14" max="14"/>
     <col width="36" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -655,40 +655,26 @@
         <v>-144625.471759</v>
       </c>
       <c r="G3" s="8" t="inlineStr"/>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>5236868010.06385173815660629349</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>911317440.77548312331840807284</t>
-        </is>
-      </c>
-      <c r="J3" s="9" t="inlineStr">
-        <is>
-          <t>16980559320.75030979033101751752</t>
-        </is>
-      </c>
-      <c r="K3" s="9" t="inlineStr">
-        <is>
-          <t>4738847245.52283468749818575294</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>14636775533.35644518800473435891</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>58046876435.25932861741364390466</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>-20322118105.08068975382991104224</t>
-        </is>
+      <c r="H3" s="7" t="n">
+        <v>5236.868010063851</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>911.3174407754831</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>16980.55932075031</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>4738.847245522835</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>14636.77553335645</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>58046.87643525933</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <v>-20322.11810508069</v>
       </c>
       <c r="O3" s="9" t="inlineStr">
         <is>
@@ -721,40 +707,26 @@
         <v>9149.992377</v>
       </c>
       <c r="G4" s="8" t="inlineStr"/>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>76707897394</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>42842703343</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>101531770371</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="inlineStr">
-        <is>
-          <t>20705854333</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr">
-        <is>
-          <t>58153253689</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>268557868939</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>112953126881</t>
-        </is>
+      <c r="H4" s="7" t="n">
+        <v>76707.897394</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>42842.703343</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>101531.770371</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>20705.854333</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>58153.253689</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>268557.868939</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>112953.126881</v>
       </c>
       <c r="O4" s="9" t="inlineStr">
         <is>
@@ -1051,40 +1023,26 @@
         <v>300.277026</v>
       </c>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>634722991.46658013857809628218</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>399710741.10211582117245040540</t>
-        </is>
-      </c>
-      <c r="J9" s="9" t="inlineStr">
-        <is>
-          <t>741649960.30312608145053717580</t>
-        </is>
-      </c>
-      <c r="K9" s="9" t="inlineStr">
-        <is>
-          <t>148332083.82680249002474444412</t>
-        </is>
-      </c>
-      <c r="L9" s="9" t="inlineStr">
-        <is>
-          <t>278012296.72951945651432847726</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="inlineStr">
-        <is>
-          <t>2886946170.76487049837722877798</t>
-        </is>
-      </c>
-      <c r="N9" s="9" t="inlineStr">
-        <is>
-          <t>1481077681.80698551388261443726</t>
-        </is>
+      <c r="H9" s="7" t="n">
+        <v>634.7229914665802</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>399.7107411021158</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>741.6499603031261</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>148.3320838268025</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>278.0122967295194</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>2886.946170764871</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>1481.077681806986</v>
       </c>
       <c r="O9" s="9" t="inlineStr">
         <is>
@@ -1117,40 +1075,26 @@
         <v>-132141.107393</v>
       </c>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>-15195581756.01390726358487220167</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>-8486998384.96849250603876598337</t>
-        </is>
-      </c>
-      <c r="J10" s="9" t="inlineStr">
-        <is>
-          <t>-20113109209.35292949151941937596</t>
-        </is>
-      </c>
-      <c r="K10" s="9" t="inlineStr">
-        <is>
-          <t>-4101761526.96667292152579633501</t>
-        </is>
-      </c>
-      <c r="L10" s="9" t="inlineStr">
-        <is>
-          <t>-11519967967.19051587919699595366</t>
-        </is>
-      </c>
-      <c r="M10" s="9" t="inlineStr">
-        <is>
-          <t>-53200429060.41959841696356842836</t>
-        </is>
-      </c>
-      <c r="N10" s="9" t="inlineStr">
-        <is>
-          <t>-22375642305.79342545998438660720</t>
-        </is>
+      <c r="H10" s="7" t="n">
+        <v>-15195.58175601391</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>-8486.998384968492</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>-20113.10920935293</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>-4101.761526966673</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>-11519.96796719052</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>-53200.4290604196</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>-22375.64230579343</v>
       </c>
       <c r="O10" s="9" t="inlineStr">
         <is>
@@ -1183,40 +1127,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="9" t="inlineStr">
         <is>
@@ -1249,40 +1179,26 @@
         <v>-9320.711657</v>
       </c>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>-1071836302.89205680900822303539</t>
-        </is>
-      </c>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>-598639335.93692947233701762743</t>
-        </is>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
-        <is>
-          <t>-1418699261.45375105407116023759</t>
-        </is>
-      </c>
-      <c r="K12" s="9" t="inlineStr">
-        <is>
-          <t>-289322053.01510620245700680077</t>
-        </is>
-      </c>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>-812573027.71587977541866886468</t>
-        </is>
-      </c>
-      <c r="M12" s="9" t="inlineStr">
-        <is>
-          <t>-3752548083.51274907554498307711</t>
-        </is>
-      </c>
-      <c r="N12" s="9" t="inlineStr">
-        <is>
-          <t>-1578289407.33940878998727780313</t>
-        </is>
+      <c r="H12" s="7" t="n">
+        <v>-1071.836302892057</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>-598.6393359369295</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>-1418.699261453751</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>-289.3220530151062</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>-812.5730277158798</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>-3752.548083512749</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>-1578.289407339409</v>
       </c>
       <c r="O12" s="9" t="inlineStr">
         <is>
@@ -1315,40 +1231,26 @@
         <v>0</v>
       </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="9" t="inlineStr">
         <is>
@@ -1381,40 +1283,26 @@
         <v>-122820.395736</v>
       </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="9" t="inlineStr">
-        <is>
-          <t>-14123745453.12185045457664916628</t>
-        </is>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>-7888359049.03156303370174835594</t>
-        </is>
-      </c>
-      <c r="J14" s="9" t="inlineStr">
-        <is>
-          <t>-18694409947.89917843744825913837</t>
-        </is>
-      </c>
-      <c r="K14" s="9" t="inlineStr">
-        <is>
-          <t>-3812439473.95156671906878953424</t>
-        </is>
-      </c>
-      <c r="L14" s="9" t="inlineStr">
-        <is>
-          <t>-10707394939.47463610377832708898</t>
-        </is>
-      </c>
-      <c r="M14" s="9" t="inlineStr">
-        <is>
-          <t>-49447880976.90684934141858535125</t>
-        </is>
-      </c>
-      <c r="N14" s="9" t="inlineStr">
-        <is>
-          <t>-20797352898.45401666999710880407</t>
-        </is>
+      <c r="H14" s="7" t="n">
+        <v>-14123.74545312185</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>-7888.359049031563</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>-18694.40994789918</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>-3812.439473951566</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>-10707.39493947464</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>-49447.88097690685</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>-20797.35289845402</v>
       </c>
       <c r="O14" s="9" t="inlineStr">
         <is>
@@ -1447,40 +1335,26 @@
         <v>-362.680543</v>
       </c>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="9" t="inlineStr">
-        <is>
-          <t>-5181917673.50882770224011217164</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>-3281789713.72144412255578074619</t>
-        </is>
-      </c>
-      <c r="J15" s="9" t="inlineStr">
-        <is>
-          <t>-6254279715.41625661858265648652</t>
-        </is>
-      </c>
-      <c r="K15" s="9" t="inlineStr">
-        <is>
-          <t>-1650549030.78669398863892866005</t>
-        </is>
-      </c>
-      <c r="L15" s="9" t="inlineStr">
-        <is>
-          <t>-3229600577.58628297663908260303</t>
-        </is>
-      </c>
-      <c r="M15" s="9" t="inlineStr">
-        <is>
-          <t>-16705224033.14084174413136378418</t>
-        </is>
-      </c>
-      <c r="N15" s="9" t="inlineStr">
-        <is>
-          <t>-7986671240.48654751734062905464</t>
-        </is>
+      <c r="H15" s="7" t="n">
+        <v>-5181.917673508829</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>-3281.789713721444</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>-6254.279715416257</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>-1650.549030786694</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>-3229.600577586283</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>-16705.22403314084</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>-7986.671240486548</v>
       </c>
       <c r="O15" s="9" t="inlineStr">
         <is>
@@ -1513,40 +1387,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="9" t="inlineStr">
         <is>
@@ -1579,40 +1439,26 @@
         <v>0</v>
       </c>
       <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="9" t="inlineStr">
         <is>
@@ -1645,40 +1491,26 @@
         <v>1.745271</v>
       </c>
       <c r="G18" s="8" t="inlineStr"/>
-      <c r="H18" s="9" t="inlineStr">
-        <is>
-          <t>5445449.93983854334506249708</t>
-        </is>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>3391861.57676268149079353843</t>
-        </is>
-      </c>
-      <c r="J18" s="9" t="inlineStr">
-        <is>
-          <t>6684151.27061088470072785644</t>
-        </is>
-      </c>
-      <c r="K18" s="9" t="inlineStr">
-        <is>
-          <t>1755623.83468639563674043485</t>
-        </is>
-      </c>
-      <c r="L18" s="9" t="inlineStr">
-        <is>
-          <t>3335726.86869875640646613991</t>
-        </is>
-      </c>
-      <c r="M18" s="9" t="inlineStr">
-        <is>
-          <t>17351807.37828890923333014146</t>
-        </is>
-      </c>
-      <c r="N18" s="9" t="inlineStr">
-        <is>
-          <t>8582863.81284760366132074808</t>
-        </is>
+      <c r="H18" s="7" t="n">
+        <v>5.445449939838544</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>3.391861576762681</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>6.684151270610885</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>1.755623834686396</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>3.335726868698756</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>17.35180737828891</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>8.582863812847602</v>
       </c>
       <c r="O18" s="9" t="inlineStr">
         <is>
@@ -1711,40 +1543,26 @@
         <v>-186.651305</v>
       </c>
       <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
-        <is>
-          <t>-74515640.16805218482114261140</t>
-        </is>
-      </c>
-      <c r="I19" s="9" t="inlineStr">
-        <is>
-          <t>-45398398.28235109364445947565</t>
-        </is>
-      </c>
-      <c r="J19" s="9" t="inlineStr">
-        <is>
-          <t>-91043735.24730874265107760020</t>
-        </is>
-      </c>
-      <c r="K19" s="9" t="inlineStr">
-        <is>
-          <t>-23273347.44480829128766140675</t>
-        </is>
-      </c>
-      <c r="L19" s="9" t="inlineStr">
-        <is>
-          <t>-44433873.53571539041444878905</t>
-        </is>
-      </c>
-      <c r="M19" s="9" t="inlineStr">
-        <is>
-          <t>-237313124.10680666522713114430</t>
-        </is>
-      </c>
-      <c r="N19" s="9" t="inlineStr">
-        <is>
-          <t>-116750437.52715480261133981640</t>
-        </is>
+      <c r="H19" s="7" t="n">
+        <v>-74.51564016805219</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>-45.39839828235109</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>-91.04373524730875</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>-23.27334744480829</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>-44.43387353571539</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>-237.3131241068067</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>-116.7504375271548</v>
       </c>
       <c r="O19" s="9" t="inlineStr">
         <is>
@@ -1777,40 +1595,26 @@
         <v>-177.774509</v>
       </c>
       <c r="G20" s="8" t="inlineStr"/>
-      <c r="H20" s="9" t="inlineStr">
-        <is>
-          <t>-5112847483.28061406076403205732</t>
-        </is>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>-3239783177.01585571040211480897</t>
-        </is>
-      </c>
-      <c r="J20" s="9" t="inlineStr">
-        <is>
-          <t>-6169920131.43955876063230674276</t>
-        </is>
-      </c>
-      <c r="K20" s="9" t="inlineStr">
-        <is>
-          <t>-1629031307.17657209298800768815</t>
-        </is>
-      </c>
-      <c r="L20" s="9" t="inlineStr">
-        <is>
-          <t>-3188502430.91926634263109995389</t>
-        </is>
-      </c>
-      <c r="M20" s="9" t="inlineStr">
-        <is>
-          <t>-16485262716.41232398813756278134</t>
-        </is>
-      </c>
-      <c r="N20" s="9" t="inlineStr">
-        <is>
-          <t>-7878503666.77224031839060998632</t>
-        </is>
+      <c r="H20" s="7" t="n">
+        <v>-5112.847483280614</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>-3239.783177015856</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>-6169.920131439559</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>-1629.031307176572</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>-3188.502430919266</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>-16485.26271641233</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>-7878.503666772241</v>
       </c>
       <c r="O20" s="9" t="inlineStr">
         <is>
@@ -1843,40 +1647,26 @@
         <v>0</v>
       </c>
       <c r="G21" s="8" t="inlineStr"/>
-      <c r="H21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N21" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O21" s="9" t="inlineStr">
         <is>
@@ -1909,40 +1699,26 @@
         <v>-123353.795559</v>
       </c>
       <c r="G22" s="8" t="inlineStr"/>
-      <c r="H22" s="9" t="inlineStr">
-        <is>
-          <t>56330397964.47726503417501562669</t>
-        </is>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>31073915244.31006337140545327044</t>
-        </is>
-      </c>
-      <c r="J22" s="9" t="inlineStr">
-        <is>
-          <t>75164381446.23081388989792413752</t>
-        </is>
-      </c>
-      <c r="K22" s="9" t="inlineStr">
-        <is>
-          <t>14953543775.24663308983527500494</t>
-        </is>
-      </c>
-      <c r="L22" s="9" t="inlineStr">
-        <is>
-          <t>43403685144.22320114416392144331</t>
-        </is>
-      </c>
-      <c r="M22" s="9" t="inlineStr">
-        <is>
-          <t>198652215845.43955983890506778746</t>
-        </is>
-      </c>
-      <c r="N22" s="9" t="inlineStr">
-        <is>
-          <t>82590813334.72002702267498433816</t>
-        </is>
+      <c r="H22" s="7" t="n">
+        <v>56330.39796447726</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>31073.91524431006</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>75164.38144623082</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>14953.54377524663</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>43403.6851442232</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>198652.2158454396</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>82590.81333472003</v>
       </c>
       <c r="O22" s="9" t="inlineStr">
         <is>
@@ -1975,40 +1751,26 @@
         <v>-16495.67504</v>
       </c>
       <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="9" t="inlineStr">
-        <is>
-          <t>-10423556244.54054054057174857440</t>
-        </is>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>-6944913993.97297297289718203360</t>
-        </is>
-      </c>
-      <c r="J23" s="9" t="inlineStr">
-        <is>
-          <t>-15594063359.48648648653106939200</t>
-        </is>
-      </c>
-      <c r="K23" s="9" t="inlineStr">
-        <is>
-          <t>-3933761727.83783783787796245280</t>
-        </is>
-      </c>
-      <c r="L23" s="9" t="inlineStr">
-        <is>
-          <t>-6492521568.83783783787796245280</t>
-        </is>
-      </c>
-      <c r="M23" s="9" t="inlineStr">
-        <is>
-          <t>-30513800136.24324324326553469600</t>
-        </is>
-      </c>
-      <c r="N23" s="9" t="inlineStr">
-        <is>
-          <t>-17148940050.08108108114349714880</t>
-        </is>
+      <c r="H23" s="7" t="n">
+        <v>-10423.55624454054</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>-6944.913993972973</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>-15594.06335948649</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>-3933.761727837837</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>-6492.521568837838</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>-30513.80013624324</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>-17148.94005008108</v>
       </c>
       <c r="O23" s="9" t="inlineStr">
         <is>
@@ -2041,40 +1803,26 @@
         <v>0</v>
       </c>
       <c r="G24" s="8" t="inlineStr"/>
-      <c r="H24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N24" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O24" s="9" t="inlineStr">
         <is>
@@ -2107,40 +1855,26 @@
         <v>-15074.158721</v>
       </c>
       <c r="G25" s="8" t="inlineStr"/>
-      <c r="H25" s="9" t="inlineStr">
-        <is>
-          <t>-9172655788.64864864867716732731</t>
-        </is>
-      </c>
-      <c r="I25" s="9" t="inlineStr">
-        <is>
-          <t>-6115861629.06756756749830791939</t>
-        </is>
-      </c>
-      <c r="J25" s="9" t="inlineStr">
-        <is>
-          <t>-13799752479.78378378382452475330</t>
-        </is>
-      </c>
-      <c r="K25" s="9" t="inlineStr">
-        <is>
-          <t>-3477629403.90540540544207227797</t>
-        </is>
-      </c>
-      <c r="L25" s="9" t="inlineStr">
-        <is>
-          <t>-5715311355.90540540544207227797</t>
-        </is>
-      </c>
-      <c r="M25" s="9" t="inlineStr">
-        <is>
-          <t>-26733389392.39189189191226237665</t>
-        </is>
-      </c>
-      <c r="N25" s="9" t="inlineStr">
-        <is>
-          <t>-15110980529.29729729735433465462</t>
-        </is>
+      <c r="H25" s="7" t="n">
+        <v>-9172.65578864865</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>-6115.861629067568</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>-13799.75247978378</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>-3477.629403905406</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>-5715.311355905405</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>-26733.38939239189</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>-15110.9805292973</v>
       </c>
       <c r="O25" s="9" t="inlineStr">
         <is>
@@ -2173,40 +1907,26 @@
         <v>-627.109313</v>
       </c>
       <c r="G26" s="8" t="inlineStr"/>
-      <c r="H26" s="9" t="inlineStr">
-        <is>
-          <t>-356162358.40540540540659182843</t>
-        </is>
-      </c>
-      <c r="I26" s="9" t="inlineStr">
-        <is>
-          <t>-240733533.22972972972684841667</t>
-        </is>
-      </c>
-      <c r="J26" s="9" t="inlineStr">
-        <is>
-          <t>-544890363.86486486486655975490</t>
-        </is>
-      </c>
-      <c r="K26" s="9" t="inlineStr">
-        <is>
-          <t>-136693618.87837837837990377941</t>
-        </is>
-      </c>
-      <c r="L26" s="9" t="inlineStr">
-        <is>
-          <t>-222914653.87837837837990377941</t>
-        </is>
-      </c>
-      <c r="M26" s="9" t="inlineStr">
-        <is>
-          <t>-1026441570.93243243243327987745</t>
-        </is>
-      </c>
-      <c r="N26" s="9" t="inlineStr">
-        <is>
-          <t>-589810979.81081081081318365686</t>
-        </is>
+      <c r="H26" s="7" t="n">
+        <v>-356.1623584054054</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>-240.7335332297297</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>-544.8903638648649</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>-136.6936188783784</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>-222.9146538783784</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>-1026.441570932432</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>-589.8109798108107</v>
       </c>
       <c r="O26" s="9" t="inlineStr">
         <is>
@@ -2239,40 +1959,26 @@
         <v>-794.407006</v>
       </c>
       <c r="G27" s="8" t="inlineStr"/>
-      <c r="H27" s="9" t="inlineStr">
-        <is>
-          <t>-894738097.48648648648798941866</t>
-        </is>
-      </c>
-      <c r="I27" s="9" t="inlineStr">
-        <is>
-          <t>-588318831.67567567567202569754</t>
-        </is>
-      </c>
-      <c r="J27" s="9" t="inlineStr">
-        <is>
-          <t>-1249420515.83783783783998488380</t>
-        </is>
-      </c>
-      <c r="K27" s="9" t="inlineStr">
-        <is>
-          <t>-319438705.05405405405598639542</t>
-        </is>
-      </c>
-      <c r="L27" s="9" t="inlineStr">
-        <is>
-          <t>-554295559.05405405405598639542</t>
-        </is>
-      </c>
-      <c r="M27" s="9" t="inlineStr">
-        <is>
-          <t>-2753969172.91891891891999244190</t>
-        </is>
-      </c>
-      <c r="N27" s="9" t="inlineStr">
-        <is>
-          <t>-1448148540.97297297297597883732</t>
-        </is>
+      <c r="H27" s="7" t="n">
+        <v>-894.7380974864865</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>-588.3188316756756</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>-1249.420515837838</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>-319.4387050540541</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>-554.295559054054</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>-2753.969172918919</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>-1448.148540972973</v>
       </c>
       <c r="O27" s="9" t="inlineStr">
         <is>
@@ -2305,40 +2011,26 @@
         <v>-4776.00116</v>
       </c>
       <c r="G28" s="8" t="inlineStr"/>
-      <c r="H28" s="9" t="inlineStr">
-        <is>
-          <t>-40669973709.87287275544666075880</t>
-        </is>
-      </c>
-      <c r="I28" s="9" t="inlineStr">
-        <is>
-          <t>-23217683809.56160727518986316400</t>
-        </is>
-      </c>
-      <c r="J28" s="9" t="inlineStr">
-        <is>
-          <t>-42589758765.99401761303583722800</t>
-        </is>
-      </c>
-      <c r="K28" s="9" t="inlineStr">
-        <is>
-          <t>-6280934801.88596056445912679920</t>
-        </is>
-      </c>
-      <c r="L28" s="9" t="inlineStr">
-        <is>
-          <t>-22274388042.02891811828122463160</t>
-        </is>
-      </c>
-      <c r="M28" s="9" t="inlineStr">
-        <is>
-          <t>-110091539273.93698797822588918680</t>
-        </is>
-      </c>
-      <c r="N28" s="9" t="inlineStr">
-        <is>
-          <t>-85763991389.71963569536139823160</t>
-        </is>
+      <c r="H28" s="7" t="n">
+        <v>-40669.97370987287</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>-23217.68380956161</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>-42589.75876599402</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>-6280.934801885961</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>-22274.38804202892</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>-110091.539273937</v>
+      </c>
+      <c r="N28" s="7" t="n">
+        <v>-85763.99138971964</v>
       </c>
       <c r="O28" s="9" t="inlineStr">
         <is>
@@ -2371,40 +2063,26 @@
         <v>7.4e-05</v>
       </c>
       <c r="G29" s="8" t="inlineStr"/>
-      <c r="H29" s="9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I29" s="9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J29" s="9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K29" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L29" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M29" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N29" s="9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="H29" s="7" t="n">
+        <v>8e-06</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>7e-06</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>1.1e-05</v>
+      </c>
+      <c r="N29" s="7" t="n">
+        <v>1.6e-05</v>
       </c>
       <c r="O29" s="9" t="inlineStr">
         <is>
@@ -2437,40 +2115,26 @@
         <v>0</v>
       </c>
       <c r="G30" s="8" t="inlineStr"/>
-      <c r="H30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="O30" s="9" t="inlineStr">
         <is>
